--- a/medicine/Mort/Feuchy_British_Cemetery/Feuchy_British_Cemetery.xlsx
+++ b/medicine/Mort/Feuchy_British_Cemetery/Feuchy_British_Cemetery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Feuchy British Cemetery  est un cimetière militaire de la Première Guerre mondiale, situé sur le territoire de la commune de Feuchy, dans le département du Pas-de-Calais, à l'est d'Arras, en France. 
 </t>
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière au milieu du village, à proximité de l'église.
 </t>
@@ -542,9 +556,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le village de Feuchy est capturé par les troupes du Commonwealth le 9 avril 1917, premier jour de la bataille d'Arras[Laquelle ?]. Il est perdu fin mars 1918 lors de l'offensive du Printemps puis repris définitivement repris fin août suivant. Il est bâti en avril 1917 et utilisé jusqu'en mars 1918. Quelques tombes sont ajoutées après la reconquête du village fin août 1918. Le cimetière contient aujourd'hui 214 sépultures de la Première Guerre mondiale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le village de Feuchy est capturé par les troupes du Commonwealth le 9 avril 1917, premier jour de la bataille d'Arras[Laquelle ?]. Il est perdu fin mars 1918 lors de l'offensive du Printemps puis repris définitivement repris fin août suivant. Il est bâti en avril 1917 et utilisé jusqu'en mars 1918. Quelques tombes sont ajoutées après la reconquête du village fin août 1918. Le cimetière contient aujourd'hui 214 sépultures de la Première Guerre mondiale.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière a un plan rectangulaire très allongé de 65 m sur 15. Il est entouré entièrement clos par un muret de moellons. Il est conçu par Sir Edwin Lutyens.
 </t>
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
